--- a/7rmart/src/test/resources/TestData.xlsx
+++ b/7rmart/src/test/resources/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\eclipse-workspace\7rmart\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d5a6fd227da2d5a9/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A7F477-4C56-4933-8DAC-E4E44D27B5A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C523406-5960-4D6C-8EC0-91FCEB19821D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{942B8728-AE34-48D2-AF9E-27A35A006196}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{F63C2903-C154-4A42-A092-DA5B5EC451AE}"/>
   </bookViews>
   <sheets>
     <sheet name="login_page" sheetId="1" r:id="rId1"/>
@@ -53,10 +53,10 @@
     <t>newpassword</t>
   </si>
   <si>
+    <t>gyuhhho</t>
+  </si>
+  <si>
     <t>tyugu</t>
-  </si>
-  <si>
-    <t>gyuhhho</t>
   </si>
   <si>
     <t>News</t>
@@ -451,11 +451,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E807327B-1610-43E7-9F30-D06EA864A1D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6533C8B2-C77B-41FA-8E74-EAC870B8A92A}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -506,11 +506,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51304744-298D-4ABD-B230-CC1DCB078D78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A1D7AA-5A92-4FE2-A184-7C14919AB052}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -533,10 +533,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -545,11 +545,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2351C3F-5385-4739-B6AA-5BE34B82553A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7CF676A-43D2-4E1C-B3CD-85E17D50E8F0}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -570,7 +570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{395E80D6-6295-4741-BC25-AFA83F974690}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D202448D-D4F9-41E4-8ED9-22F18C07BC8B}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -579,9 +579,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -603,30 +601,26 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>777676667</v>
+        <v>89777667</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{4303A248-713C-45BC-A4E1-863463EA337A}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{80417DFF-DA6B-40E3-8D2C-85F36117464A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2800460-C8FB-48D4-8091-F592596164B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68DDA1AC-A292-4A4F-90FC-222BC4492285}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.5546875" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -650,11 +644,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB058083-C337-4D90-984E-09CD5DA031BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42430F0-988F-44EC-80EA-4939AEA809D4}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/7rmart/src/test/resources/TestData.xlsx
+++ b/7rmart/src/test/resources/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d5a6fd227da2d5a9/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\my_live_project\7rmart\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C523406-5960-4D6C-8EC0-91FCEB19821D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE5A005-6060-4838-953E-FCF936F5BF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{F63C2903-C154-4A42-A092-DA5B5EC451AE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F63C2903-C154-4A42-A092-DA5B5EC451AE}"/>
   </bookViews>
   <sheets>
     <sheet name="login_page" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,7 @@
     <t>Subcategory</t>
   </si>
   <si>
-    <t>appieee</t>
+    <t>appicxln</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -509,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A1D7AA-5A92-4FE2-A184-7C14919AB052}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -549,7 +549,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -647,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42430F0-988F-44EC-80EA-4939AEA809D4}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/7rmart/src/test/resources/TestData.xlsx
+++ b/7rmart/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\my_live_project\7rmart\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE5A005-6060-4838-953E-FCF936F5BF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BC74C9-74DF-4F2E-AE6D-282E8A6DABC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F63C2903-C154-4A42-A092-DA5B5EC451AE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{F63C2903-C154-4A42-A092-DA5B5EC451AE}"/>
   </bookViews>
   <sheets>
     <sheet name="login_page" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,7 @@
     <t>Subcategory</t>
   </si>
   <si>
-    <t>appicxln</t>
+    <t>appicx907n</t>
   </si>
 </sst>
 </file>
@@ -509,7 +509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A1D7AA-5A92-4FE2-A184-7C14919AB052}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -647,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42430F0-988F-44EC-80EA-4939AEA809D4}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
